--- a/data/trans_bre/POLIPATOLOGIA_5-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Clase-trans_bre.xlsx
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,9</t>
+          <t>-0,57; 5,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,04</t>
+          <t>2,27; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,93</t>
+          <t>-2,62; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,2</t>
+          <t>0,41; 6,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 299,4</t>
+          <t>-24,12; 306,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 162,17</t>
+          <t>-49,46; 138,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 131,98</t>
+          <t>5,32; 132,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,28</t>
+          <t>-1,14; 4,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,0</t>
+          <t>0,22; 6,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,94</t>
+          <t>0,44; 5,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,8</t>
+          <t>1,61; 8,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 298,87</t>
+          <t>-37,22; 354,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 507,28</t>
+          <t>1,57; 604,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 922,0</t>
+          <t>0,12; 806,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,66; 161,24</t>
+          <t>18,02; 152,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 10,93</t>
+          <t>1,34; 10,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,57</t>
+          <t>-1,83; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 18,69</t>
+          <t>6,54; 18,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 21,93</t>
+          <t>7,49; 22,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,83; 432,74</t>
+          <t>28,14; 460,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 153,63</t>
+          <t>-34,0; 141,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>154,01; 900,28</t>
+          <t>171,79; 993,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,39; 741,36</t>
+          <t>63,17; 749,61</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,56</t>
+          <t>-0,46; 3,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,08</t>
+          <t>-1,86; 2,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,17</t>
+          <t>1,19; 5,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 52,8</t>
+          <t>0,51; 53,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 92,52</t>
+          <t>-10,82; 93,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 61,91</t>
+          <t>-26,52; 57,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 171,49</t>
+          <t>24,47; 173,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 569,98</t>
+          <t>4,01; 571,5</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,69</t>
+          <t>-0,86; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,97</t>
+          <t>6,71; 12,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,32</t>
+          <t>4,04; 10,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 17,42</t>
+          <t>6,52; 17,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 140,66</t>
+          <t>-14,94; 160,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>132,24; 505,52</t>
+          <t>130,4; 513,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,02; 204,38</t>
+          <t>50,68; 206,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,82; 209,04</t>
+          <t>63,68; 215,03</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,57</t>
+          <t>6,27; 9,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,38</t>
+          <t>10,53; 15,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,29</t>
+          <t>9,75; 14,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,27; 19,7</t>
+          <t>14,3; 19,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>453,03; —</t>
+          <t>440,41; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>354,16; 2244,3</t>
+          <t>402,51; 2504,95</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,28</t>
+          <t>2,26; 4,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,28</t>
+          <t>4,75; 7,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,46</t>
+          <t>5,01; 7,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 29,66</t>
+          <t>7,77; 27,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,34; 143,67</t>
+          <t>58,04; 147,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>110,16; 217,56</t>
+          <t>109,42; 220,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>122,28; 239,36</t>
+          <t>121,75; 238,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,07; 368,36</t>
+          <t>92,68; 386,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA_5-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
